--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldSetFontColor.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldSetFontColor.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="R408076a104b74ae9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="R247644349f0d411d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -20,22 +20,22 @@
   <x:fonts count="4">
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="0"/>
+      <x:color rgb="000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="2"/>
+      <x:color rgb="FF0800"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="3"/>
+      <x:color rgb="17FF00"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="4"/>
+      <x:color rgb="0042FF"/>
       <x:name val="Calibri"/>
     </x:font>
   </x:fonts>
@@ -50,16 +50,16 @@
   <x:borders count="1">
     <x:border>
       <x:left style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:left>
       <x:right style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:right>
       <x:top style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:top>
       <x:bottom style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
